--- a/CS3341-proj1.xlsx
+++ b/CS3341-proj1.xlsx
@@ -8,122 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ephraim888sun/Code/CS3353/prog1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434DE222-EAD8-4043-A837-9B18A76E3AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63512A4B-0164-C146-8FB3-20A7B82D96D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="880" windowWidth="18660" windowHeight="25700" activeTab="2" xr2:uid="{DBE40AC1-21D3-7B49-B227-1B135AEAF3F0}"/>
+    <workbookView xWindow="3800" yWindow="880" windowWidth="37320" windowHeight="25700" activeTab="2" xr2:uid="{DBE40AC1-21D3-7B49-B227-1B135AEAF3F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 3'!$A$122</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 3'!$A$123</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 3'!$B$126:$I$126</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">'Sheet 3'!$B$159:$I$159</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">'Sheet 3'!$B$160:$I$160</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 3'!$A$156</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 3'!$A$157</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 3'!$A$158</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 3'!$A$159</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 3'!$A$160</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 3'!$B$155:$I$155</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Sheet 3'!$B$156:$I$156</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Sheet 3'!$B$157:$I$157</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Sheet 3'!$B$158:$I$158</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 3'!$A$124</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Sheet 3'!$B$159:$I$159</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Sheet 3'!$B$160:$I$160</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Sheet 3'!$A$156</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Sheet 3'!$A$157</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Sheet 3'!$A$158</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Sheet 3'!$A$159</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Sheet 3'!$A$160</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Sheet 3'!$B$155:$I$155</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Sheet 3'!$B$156:$I$156</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Sheet 3'!$B$157:$I$157</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 3'!$A$125</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Sheet 3'!$B$158:$I$158</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Sheet 3'!$B$159:$I$159</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Sheet 3'!$B$160:$I$160</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Sheet 3'!$A$156</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Sheet 3'!$A$157</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Sheet 3'!$A$158</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Sheet 3'!$A$159</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Sheet 3'!$A$160</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Sheet 3'!$B$155:$I$155</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Sheet 3'!$B$156:$I$156</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 3'!$A$126</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Sheet 3'!$B$157:$I$157</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'Sheet 3'!$B$158:$I$158</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'Sheet 3'!$B$159:$I$159</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'Sheet 3'!$B$160:$I$160</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'Sheet 3'!$A$156</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'Sheet 3'!$A$157</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'Sheet 3'!$A$158</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'Sheet 3'!$A$159</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'Sheet 3'!$A$160</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'Sheet 3'!$B$156:$I$156</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 3'!$B$121:$I$121</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'Sheet 3'!$B$157:$I$157</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'Sheet 3'!$B$158:$I$158</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'Sheet 3'!$B$159:$I$159</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'Sheet 3'!$B$160:$I$160</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'Sheet 3'!$A$156</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'Sheet 3'!$A$157</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'Sheet 3'!$A$158</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'Sheet 3'!$A$159</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'Sheet 3'!$A$160</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'Sheet 3'!$B$155:$I$155</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 3'!$B$122:$I$122</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'Sheet 3'!$B$156:$I$156</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">'Sheet 3'!$B$157:$I$157</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'Sheet 3'!$B$158:$I$158</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">'Sheet 3'!$B$159:$I$159</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'Sheet 3'!$B$160:$I$160</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">'Sheet 3'!$A$156</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">'Sheet 3'!$B$156:$I$156</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">'Sheet 3'!$A$156</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 3'!$B$123:$I$123</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">'Sheet 3'!$A$157</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">'Sheet 3'!$A$158</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">'Sheet 3'!$A$159</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">'Sheet 3'!$A$160</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">'Sheet 3'!$B$155:$I$155</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">'Sheet 3'!$B$156:$I$156</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">'Sheet 3'!$B$157:$I$157</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">'Sheet 3'!$B$158:$I$158</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">'Sheet 3'!$B$159:$I$159</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">'Sheet 3'!$B$160:$I$160</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 3'!$B$124:$I$124</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">'Sheet 3'!$A$156</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">'Sheet 3'!$A$157</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">'Sheet 3'!$A$158</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">'Sheet 3'!$A$159</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">'Sheet 3'!$A$160</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">'Sheet 3'!$B$155:$I$155</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">'Sheet 3'!$B$156:$I$156</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">'Sheet 3'!$B$157:$I$157</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">'Sheet 3'!$B$158:$I$158</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">'Sheet 3'!$B$159:$I$159</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 3'!$B$125:$I$125</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">'Sheet 3'!$B$160:$I$160</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">'Sheet 3'!$A$156</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">'Sheet 3'!$A$157</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">'Sheet 3'!$A$158</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">'Sheet 3'!$A$159</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">'Sheet 3'!$A$160</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">'Sheet 3'!$B$155:$I$155</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">'Sheet 3'!$B$156:$I$156</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">'Sheet 3'!$B$157:$I$157</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">'Sheet 3'!$B$158:$I$158</definedName>
-    <definedName name="_xlchart.v2.65" hidden="1">'Sheet 3'!$A$156</definedName>
-    <definedName name="_xlchart.v2.66" hidden="1">'Sheet 3'!$B$156:$I$156</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -383,9 +276,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -394,6 +284,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8936,220 +8829,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="121">
-          <cell r="B121">
-            <v>1000</v>
-          </cell>
-          <cell r="C121">
-            <v>3000</v>
-          </cell>
-          <cell r="D121">
-            <v>5000</v>
-          </cell>
-          <cell r="E121">
-            <v>7000</v>
-          </cell>
-          <cell r="F121">
-            <v>9000</v>
-          </cell>
-          <cell r="G121">
-            <v>11000</v>
-          </cell>
-          <cell r="H121">
-            <v>13000</v>
-          </cell>
-          <cell r="I121">
-            <v>15000</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
-            <v>Case 0</v>
-          </cell>
-          <cell r="B122">
-            <v>251255.12</v>
-          </cell>
-          <cell r="C122">
-            <v>2256852.34</v>
-          </cell>
-          <cell r="D122">
-            <v>6258949.3300000001</v>
-          </cell>
-          <cell r="E122">
-            <v>12269966.300000001</v>
-          </cell>
-          <cell r="F122">
-            <v>20271836.68</v>
-          </cell>
-          <cell r="G122">
-            <v>30257663.949999999</v>
-          </cell>
-          <cell r="H122">
-            <v>42240477.850000001</v>
-          </cell>
-          <cell r="I122">
-            <v>56215810.579999998</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
-            <v>Case 1</v>
-          </cell>
-          <cell r="B123">
-            <v>24265.23</v>
-          </cell>
-          <cell r="C123">
-            <v>120326.92</v>
-          </cell>
-          <cell r="D123">
-            <v>255211</v>
-          </cell>
-          <cell r="E123">
-            <v>420089.06</v>
-          </cell>
-          <cell r="F123">
-            <v>608890.16</v>
-          </cell>
-          <cell r="G123">
-            <v>820565.73</v>
-          </cell>
-          <cell r="H123">
-            <v>1051765.75</v>
-          </cell>
-          <cell r="I123">
-            <v>1300942.8600000001</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>Case 2</v>
-          </cell>
-          <cell r="B124">
-            <v>30352.87</v>
-          </cell>
-          <cell r="C124">
-            <v>150239.54</v>
-          </cell>
-          <cell r="D124">
-            <v>313053.88</v>
-          </cell>
-          <cell r="E124">
-            <v>530536.85</v>
-          </cell>
-          <cell r="F124">
-            <v>784384.38</v>
-          </cell>
-          <cell r="G124">
-            <v>1047946.13</v>
-          </cell>
-          <cell r="H124">
-            <v>1396984.73</v>
-          </cell>
-          <cell r="I124">
-            <v>1664742.96</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
-            <v>Case 3</v>
-          </cell>
-          <cell r="B125">
-            <v>27182.35</v>
-          </cell>
-          <cell r="C125">
-            <v>131684.43</v>
-          </cell>
-          <cell r="D125">
-            <v>252797.48</v>
-          </cell>
-          <cell r="E125">
-            <v>426403.64</v>
-          </cell>
-          <cell r="F125">
-            <v>602850.76</v>
-          </cell>
-          <cell r="G125">
-            <v>802768.2</v>
-          </cell>
-          <cell r="H125">
-            <v>1012956.62</v>
-          </cell>
-          <cell r="I125">
-            <v>1290715.7</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
-            <v>Case 4</v>
-          </cell>
-          <cell r="B126">
-            <v>35077.89</v>
-          </cell>
-          <cell r="C126">
-            <v>172679.54</v>
-          </cell>
-          <cell r="D126">
-            <v>347861.63</v>
-          </cell>
-          <cell r="E126">
-            <v>577113.77</v>
-          </cell>
-          <cell r="F126">
-            <v>825330.67</v>
-          </cell>
-          <cell r="G126">
-            <v>1128135.8899999999</v>
-          </cell>
-          <cell r="H126">
-            <v>1354083.81</v>
-          </cell>
-          <cell r="I126">
-            <v>1647190.58</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>3</v>
-          </cell>
-          <cell r="C155">
-            <v>3.4771212547196626</v>
-          </cell>
-          <cell r="D155">
-            <v>3.6989700043360187</v>
-          </cell>
-          <cell r="E155">
-            <v>3.8450980400142569</v>
-          </cell>
-          <cell r="F155">
-            <v>3.9542425094393248</v>
-          </cell>
-          <cell r="G155">
-            <v>4.0413926851582254</v>
-          </cell>
-          <cell r="H155">
-            <v>4.1139433523068369</v>
-          </cell>
-          <cell r="I155">
-            <v>4.1760912590556813</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -22248,38 +21927,38 @@
       <c r="A110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="24">
         <v>1000</v>
       </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16">
+      <c r="C110" s="24"/>
+      <c r="D110" s="24">
         <v>3000</v>
       </c>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16">
+      <c r="E110" s="24"/>
+      <c r="F110" s="24">
         <v>5000</v>
       </c>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16">
+      <c r="G110" s="24"/>
+      <c r="H110" s="24">
         <v>7000</v>
       </c>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16">
+      <c r="I110" s="24"/>
+      <c r="J110" s="24">
         <v>9000</v>
       </c>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16">
+      <c r="K110" s="24"/>
+      <c r="L110" s="24">
         <v>11000</v>
       </c>
-      <c r="M110" s="16"/>
-      <c r="N110" s="16">
+      <c r="M110" s="24"/>
+      <c r="N110" s="24">
         <v>13000</v>
       </c>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16">
+      <c r="O110" s="24"/>
+      <c r="P110" s="24">
         <v>15000</v>
       </c>
-      <c r="Q110" s="16"/>
+      <c r="Q110" s="24"/>
     </row>
     <row r="111" spans="1:41" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
@@ -35936,38 +35615,38 @@
       <c r="A110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="24">
         <v>1000</v>
       </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16">
+      <c r="C110" s="24"/>
+      <c r="D110" s="24">
         <v>3000</v>
       </c>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16">
+      <c r="E110" s="24"/>
+      <c r="F110" s="24">
         <v>5000</v>
       </c>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16">
+      <c r="G110" s="24"/>
+      <c r="H110" s="24">
         <v>7000</v>
       </c>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16">
+      <c r="I110" s="24"/>
+      <c r="J110" s="24">
         <v>9000</v>
       </c>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16">
+      <c r="K110" s="24"/>
+      <c r="L110" s="24">
         <v>11000</v>
       </c>
-      <c r="M110" s="16"/>
-      <c r="N110" s="16">
+      <c r="M110" s="24"/>
+      <c r="N110" s="24">
         <v>13000</v>
       </c>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16">
+      <c r="O110" s="24"/>
+      <c r="P110" s="24">
         <v>15000</v>
       </c>
-      <c r="Q110" s="16"/>
+      <c r="Q110" s="24"/>
     </row>
     <row r="111" spans="1:41" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
@@ -36826,8 +36505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648A81DE-9858-6443-A9E7-7917D367BE6A}">
   <dimension ref="A1:AO161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="88" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="132" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49628,38 +49307,38 @@
       <c r="A110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="24">
         <v>1000</v>
       </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16">
+      <c r="C110" s="24"/>
+      <c r="D110" s="24">
         <v>3000</v>
       </c>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16">
+      <c r="E110" s="24"/>
+      <c r="F110" s="24">
         <v>5000</v>
       </c>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16">
+      <c r="G110" s="24"/>
+      <c r="H110" s="24">
         <v>7000</v>
       </c>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16">
+      <c r="I110" s="24"/>
+      <c r="J110" s="24">
         <v>9000</v>
       </c>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16">
+      <c r="K110" s="24"/>
+      <c r="L110" s="24">
         <v>11000</v>
       </c>
-      <c r="M110" s="16"/>
-      <c r="N110" s="16">
+      <c r="M110" s="24"/>
+      <c r="N110" s="24">
         <v>13000</v>
       </c>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16">
+      <c r="O110" s="24"/>
+      <c r="P110" s="24">
         <v>15000</v>
       </c>
-      <c r="Q110" s="16"/>
+      <c r="Q110" s="24"/>
     </row>
     <row r="111" spans="1:41" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
@@ -50067,248 +49746,248 @@
       <c r="L117"/>
     </row>
     <row r="121" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="18"/>
-      <c r="B121" s="19">
+      <c r="A121" s="17"/>
+      <c r="B121" s="18">
         <v>1000</v>
       </c>
-      <c r="C121" s="19">
+      <c r="C121" s="18">
         <v>3000</v>
       </c>
-      <c r="D121" s="19">
+      <c r="D121" s="18">
         <v>5000</v>
       </c>
-      <c r="E121" s="19">
+      <c r="E121" s="18">
         <v>7000</v>
       </c>
-      <c r="F121" s="19">
+      <c r="F121" s="18">
         <v>9000</v>
       </c>
-      <c r="G121" s="19">
+      <c r="G121" s="18">
         <v>11000</v>
       </c>
-      <c r="H121" s="19">
+      <c r="H121" s="18">
         <v>13000</v>
       </c>
-      <c r="I121" s="19">
+      <c r="I121" s="18">
         <v>15000</v>
       </c>
       <c r="J121" s="1"/>
     </row>
     <row r="122" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
+      <c r="A122" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B122" s="20">
+      <c r="B122" s="19">
         <f>B112</f>
         <v>250389.6</v>
       </c>
-      <c r="C122" s="20">
+      <c r="C122" s="19">
         <f>D112</f>
         <v>2255054.46</v>
       </c>
-      <c r="D122" s="20">
+      <c r="D122" s="19">
         <f>F112</f>
         <v>6250107.4000000004</v>
       </c>
-      <c r="E122" s="20">
+      <c r="E122" s="19">
         <f>H112</f>
         <v>12263042.24</v>
       </c>
-      <c r="F122" s="20">
+      <c r="F122" s="19">
         <f>J112</f>
         <v>20259978.879999999</v>
       </c>
-      <c r="G122" s="20">
+      <c r="G122" s="19">
         <f>L112</f>
         <v>30248197.52</v>
       </c>
-      <c r="H122" s="20">
+      <c r="H122" s="19">
         <f>N112</f>
         <v>42267378.810000002</v>
       </c>
-      <c r="I122" s="21">
+      <c r="I122" s="20">
         <f>P112</f>
         <v>56282565.039999999</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
+      <c r="A123" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B123" s="20">
+      <c r="B123" s="19">
         <f t="shared" ref="B123:B126" si="2">B113</f>
         <v>24890.959999999999</v>
       </c>
-      <c r="C123" s="20">
+      <c r="C123" s="19">
         <f t="shared" ref="C123:C126" si="3">D113</f>
         <v>124224.4</v>
       </c>
-      <c r="D123" s="20">
+      <c r="D123" s="19">
         <f t="shared" ref="D123:D126" si="4">F113</f>
         <v>263872.17</v>
       </c>
-      <c r="E123" s="20">
+      <c r="E123" s="19">
         <f t="shared" ref="E123:E126" si="5">H113</f>
         <v>433931.06</v>
       </c>
-      <c r="F123" s="20">
+      <c r="F123" s="19">
         <f t="shared" ref="F123:F126" si="6">J113</f>
         <v>629638.88</v>
       </c>
-      <c r="G123" s="20">
+      <c r="G123" s="19">
         <f t="shared" ref="G123:G126" si="7">L113</f>
         <v>847891.36</v>
       </c>
-      <c r="H123" s="20">
+      <c r="H123" s="19">
         <f t="shared" ref="H123:H126" si="8">N113</f>
         <v>1086643.67</v>
       </c>
-      <c r="I123" s="21">
-        <f t="shared" ref="I123:I126" si="9">P113</f>
+      <c r="I123" s="20">
+        <f t="shared" ref="I123:I125" si="9">P113</f>
         <v>1344034.68</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B124" s="20">
+      <c r="B124" s="19">
         <f>B114</f>
         <v>24413</v>
       </c>
-      <c r="C124" s="20">
+      <c r="C124" s="19">
         <f t="shared" si="3"/>
         <v>118982.63</v>
       </c>
-      <c r="D124" s="20">
+      <c r="D124" s="19">
         <f t="shared" si="4"/>
         <v>243782.51</v>
       </c>
-      <c r="E124" s="20">
+      <c r="E124" s="19">
         <f t="shared" si="5"/>
         <v>391939.35</v>
       </c>
-      <c r="F124" s="20">
+      <c r="F124" s="19">
         <f t="shared" si="6"/>
         <v>558659.83999999997</v>
       </c>
-      <c r="G124" s="20">
+      <c r="G124" s="19">
         <f t="shared" si="7"/>
         <v>754772.05</v>
       </c>
-      <c r="H124" s="20">
+      <c r="H124" s="19">
         <f t="shared" si="8"/>
         <v>944560.04</v>
       </c>
-      <c r="I124" s="21">
+      <c r="I124" s="20">
         <f t="shared" si="9"/>
         <v>1175818.77</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="20">
+      <c r="B125" s="19">
         <f t="shared" si="2"/>
         <v>15712.22</v>
       </c>
-      <c r="C125" s="20">
+      <c r="C125" s="19">
         <f t="shared" si="3"/>
         <v>81213.88</v>
       </c>
-      <c r="D125" s="20">
+      <c r="D125" s="19">
         <f t="shared" si="4"/>
         <v>110254.44</v>
       </c>
-      <c r="E125" s="20">
+      <c r="E125" s="19">
         <f t="shared" si="5"/>
         <v>164634.21</v>
       </c>
-      <c r="F125" s="20">
+      <c r="F125" s="19">
         <f t="shared" si="6"/>
         <v>222457.9</v>
       </c>
-      <c r="G125" s="20">
+      <c r="G125" s="19">
         <f>L115</f>
         <v>284399.15999999997</v>
       </c>
-      <c r="H125" s="20">
+      <c r="H125" s="19">
         <f t="shared" si="8"/>
         <v>344987.66</v>
       </c>
-      <c r="I125" s="21">
+      <c r="I125" s="20">
         <f t="shared" si="9"/>
         <v>411568.57</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B126" s="22">
+      <c r="B126" s="21">
         <f t="shared" si="2"/>
         <v>8946.83</v>
       </c>
-      <c r="C126" s="22">
+      <c r="C126" s="21">
         <f t="shared" si="3"/>
         <v>36969.96</v>
       </c>
-      <c r="D126" s="22">
+      <c r="D126" s="21">
         <f t="shared" si="4"/>
         <v>69709.009999999995</v>
       </c>
-      <c r="E126" s="22">
+      <c r="E126" s="21">
         <f t="shared" si="5"/>
         <v>105572.82</v>
       </c>
-      <c r="F126" s="22">
+      <c r="F126" s="21">
         <f t="shared" si="6"/>
         <v>143579.21</v>
       </c>
-      <c r="G126" s="22">
+      <c r="G126" s="21">
         <f t="shared" si="7"/>
         <v>183052.38</v>
       </c>
-      <c r="H126" s="22">
+      <c r="H126" s="21">
         <f t="shared" si="8"/>
         <v>224626.06</v>
       </c>
-      <c r="I126" s="23">
+      <c r="I126" s="22">
         <f>P116</f>
         <v>266885.78999999998</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B155" s="17">
+      <c r="B155" s="16">
         <f>LOG(1000)</f>
         <v>3</v>
       </c>
-      <c r="C155" s="17">
+      <c r="C155" s="16">
         <f>LOG(3000)</f>
         <v>3.4771212547196626</v>
       </c>
-      <c r="D155" s="17">
+      <c r="D155" s="16">
         <f>LOG(5000)</f>
         <v>3.6989700043360187</v>
       </c>
-      <c r="E155" s="17">
+      <c r="E155" s="16">
         <f>LOG(7000)</f>
         <v>3.8450980400142569</v>
       </c>
-      <c r="F155" s="17">
+      <c r="F155" s="16">
         <f>LOG(9000)</f>
         <v>3.9542425094393248</v>
       </c>
-      <c r="G155" s="17">
+      <c r="G155" s="16">
         <f>LOG(11000)</f>
         <v>4.0413926851582254</v>
       </c>
-      <c r="H155" s="17">
+      <c r="H155" s="16">
         <f>LOG(13000)</f>
         <v>4.1139433523068369</v>
       </c>
-      <c r="I155" s="17">
+      <c r="I155" s="16">
         <f>LOG(15000)</f>
         <v>4.1760912590556813</v>
       </c>
@@ -50317,36 +49996,36 @@
       <c r="A156" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="24">
-        <f>LOG(B122)</f>
+      <c r="B156" s="23">
+        <f t="shared" ref="B156:I160" si="10">LOG(B122)</f>
         <v>5.3986162863738114</v>
       </c>
-      <c r="C156" s="24">
-        <f>LOG(C122)</f>
+      <c r="C156" s="23">
+        <f t="shared" si="10"/>
         <v>6.3531570346361015</v>
       </c>
-      <c r="D156" s="24">
-        <f>LOG(D122)</f>
+      <c r="D156" s="23">
+        <f t="shared" si="10"/>
         <v>6.795887480196332</v>
       </c>
-      <c r="E156" s="24">
-        <f>LOG(E122)</f>
+      <c r="E156" s="23">
+        <f t="shared" si="10"/>
         <v>7.08859822419093</v>
       </c>
-      <c r="F156" s="24">
-        <f>LOG(F122)</f>
+      <c r="F156" s="23">
+        <f t="shared" si="10"/>
         <v>7.3066389882945364</v>
       </c>
-      <c r="G156" s="24">
-        <f>LOG(G122)</f>
+      <c r="G156" s="23">
+        <f t="shared" si="10"/>
         <v>7.4806995002962271</v>
       </c>
-      <c r="H156" s="24">
-        <f>LOG(H122)</f>
+      <c r="H156" s="23">
+        <f t="shared" si="10"/>
         <v>7.6260053161126722</v>
       </c>
-      <c r="I156" s="24">
-        <f>LOG(I122)</f>
+      <c r="I156" s="23">
+        <f t="shared" si="10"/>
         <v>7.7503738818922914</v>
       </c>
     </row>
@@ -50354,36 +50033,36 @@
       <c r="A157" t="s">
         <v>9</v>
       </c>
-      <c r="B157" s="24">
-        <f>LOG(B123)</f>
+      <c r="B157" s="23">
+        <f t="shared" si="10"/>
         <v>4.3960416468963608</v>
       </c>
-      <c r="C157" s="24">
-        <f>LOG(C123)</f>
+      <c r="C157" s="23">
+        <f t="shared" si="10"/>
         <v>5.0942069077937555</v>
       </c>
-      <c r="D157" s="24">
-        <f>LOG(D123)</f>
+      <c r="D157" s="23">
+        <f t="shared" si="10"/>
         <v>5.4213935885801394</v>
       </c>
-      <c r="E157" s="24">
-        <f>LOG(E123)</f>
+      <c r="E157" s="23">
+        <f t="shared" si="10"/>
         <v>5.637420737254887</v>
       </c>
-      <c r="F157" s="24">
-        <f>LOG(F123)</f>
+      <c r="F157" s="23">
+        <f t="shared" si="10"/>
         <v>5.7990915377247578</v>
       </c>
-      <c r="G157" s="24">
-        <f>LOG(G123)</f>
+      <c r="G157" s="23">
+        <f t="shared" si="10"/>
         <v>5.9283402098332765</v>
       </c>
-      <c r="H157" s="24">
-        <f>LOG(H123)</f>
+      <c r="H157" s="23">
+        <f t="shared" si="10"/>
         <v>6.0360871544607466</v>
       </c>
-      <c r="I157" s="24">
-        <f>LOG(I123)</f>
+      <c r="I157" s="23">
+        <f t="shared" si="10"/>
         <v>6.1284104749219122</v>
       </c>
     </row>
@@ -50391,36 +50070,36 @@
       <c r="A158" t="s">
         <v>6</v>
       </c>
-      <c r="B158" s="24">
-        <f>LOG(B124)</f>
+      <c r="B158" s="23">
+        <f t="shared" si="10"/>
         <v>4.3876211511250869</v>
       </c>
-      <c r="C158" s="24">
-        <f>LOG(C124)</f>
+      <c r="C158" s="23">
+        <f t="shared" si="10"/>
         <v>5.0754835643692768</v>
       </c>
-      <c r="D158" s="24">
-        <f>LOG(D124)</f>
+      <c r="D158" s="23">
+        <f t="shared" si="10"/>
         <v>5.3870025442562763</v>
       </c>
-      <c r="E158" s="24">
-        <f>LOG(E124)</f>
+      <c r="E158" s="23">
+        <f t="shared" si="10"/>
         <v>5.5932188680454855</v>
       </c>
-      <c r="F158" s="24">
-        <f>LOG(F124)</f>
+      <c r="F158" s="23">
+        <f t="shared" si="10"/>
         <v>5.7471474526501725</v>
       </c>
-      <c r="G158" s="24">
-        <f>LOG(G124)</f>
+      <c r="G158" s="23">
+        <f t="shared" si="10"/>
         <v>5.8778158094108619</v>
       </c>
-      <c r="H158" s="24">
-        <f>LOG(H124)</f>
+      <c r="H158" s="23">
+        <f t="shared" si="10"/>
         <v>5.9752295686230816</v>
       </c>
-      <c r="I158" s="24">
-        <f>LOG(I124)</f>
+      <c r="I158" s="23">
+        <f t="shared" si="10"/>
         <v>6.0703403887007932</v>
       </c>
     </row>
@@ -50428,36 +50107,36 @@
       <c r="A159" t="s">
         <v>7</v>
       </c>
-      <c r="B159" s="24">
-        <f>LOG(B125)</f>
+      <c r="B159" s="23">
+        <f t="shared" si="10"/>
         <v>4.1962375514075587</v>
       </c>
-      <c r="C159" s="24">
-        <f>LOG(C125)</f>
+      <c r="C159" s="23">
+        <f t="shared" si="10"/>
         <v>4.909630259441494</v>
       </c>
-      <c r="D159" s="24">
-        <f>LOG(D125)</f>
+      <c r="D159" s="23">
+        <f t="shared" si="10"/>
         <v>5.0423960877423522</v>
       </c>
-      <c r="E159" s="24">
-        <f>LOG(E125)</f>
+      <c r="E159" s="23">
+        <f t="shared" si="10"/>
         <v>5.2165200840384562</v>
       </c>
-      <c r="F159" s="24">
-        <f>LOG(F125)</f>
+      <c r="F159" s="23">
+        <f t="shared" si="10"/>
         <v>5.3472478331700879</v>
       </c>
-      <c r="G159" s="24">
-        <f>LOG(G125)</f>
+      <c r="G159" s="23">
+        <f t="shared" si="10"/>
         <v>5.4539283093295161</v>
       </c>
-      <c r="H159" s="24">
-        <f>LOG(H125)</f>
+      <c r="H159" s="23">
+        <f t="shared" si="10"/>
         <v>5.5378035609000769</v>
       </c>
-      <c r="I159" s="24">
-        <f>LOG(I125)</f>
+      <c r="I159" s="23">
+        <f t="shared" si="10"/>
         <v>5.6144422018611708</v>
       </c>
     </row>
@@ -50465,36 +50144,36 @@
       <c r="A160" t="s">
         <v>8</v>
       </c>
-      <c r="B160" s="24">
-        <f>LOG(B126)</f>
+      <c r="B160" s="23">
+        <f t="shared" si="10"/>
         <v>3.9516691853299615</v>
       </c>
-      <c r="C160" s="24">
-        <f>LOG(C126)</f>
+      <c r="C160" s="23">
+        <f t="shared" si="10"/>
         <v>4.5678489806843139</v>
       </c>
-      <c r="D160" s="24">
-        <f>LOG(D126)</f>
+      <c r="D160" s="23">
+        <f t="shared" si="10"/>
         <v>4.8432889149759255</v>
       </c>
-      <c r="E160" s="24">
-        <f>LOG(E126)</f>
+      <c r="E160" s="23">
+        <f t="shared" si="10"/>
         <v>5.023552122332366</v>
       </c>
-      <c r="F160" s="24">
-        <f>LOG(F126)</f>
+      <c r="F160" s="23">
+        <f t="shared" si="10"/>
         <v>5.1570915594331819</v>
       </c>
-      <c r="G160" s="24">
-        <f>LOG(G126)</f>
+      <c r="G160" s="23">
+        <f t="shared" si="10"/>
         <v>5.2625753798394976</v>
       </c>
-      <c r="H160" s="24">
-        <f>LOG(H126)</f>
+      <c r="H160" s="23">
+        <f t="shared" si="10"/>
         <v>5.3514601395374628</v>
       </c>
-      <c r="I160" s="24">
-        <f>LOG(I126)</f>
+      <c r="I160" s="23">
+        <f t="shared" si="10"/>
         <v>5.4263254509367131</v>
       </c>
     </row>
